--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,24 +416,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>gift</v>
+        <v>sd</v>
       </c>
       <c r="B2">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="C2" s="1">
-        <v>45960.708333333336</v>
+        <v>45966.666666666664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>house</v>
+        <v>gift</v>
       </c>
       <c r="B3">
-        <v>500000</v>
+        <v>8000</v>
       </c>
       <c r="C3" s="1">
-        <v>45959.708333333336</v>
+        <v>45960.708333333336</v>
       </c>
     </row>
     <row r="4">
@@ -441,7 +441,7 @@
         <v>house</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>500000</v>
       </c>
       <c r="C4" s="1">
         <v>45959.708333333336</v>
@@ -449,29 +449,40 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>sds</v>
+        <v>house</v>
       </c>
       <c r="B5">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C5" s="1">
-        <v>45950.708333333336</v>
+        <v>45959.708333333336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>sds</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45950.708333333336</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
         <v>sd</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>56</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>45945.708333333336</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,29 +460,40 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>sds</v>
+        <v>cars</v>
       </c>
       <c r="B6">
-        <v>500</v>
+        <v>100000</v>
       </c>
       <c r="C6" s="1">
-        <v>45950.708333333336</v>
+        <v>45959.708333333336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>sds</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45950.708333333336</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
         <v>sd</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>56</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>45945.708333333336</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>